--- a/processed_output/feedback_with_topics_and_sentiment.xlsx
+++ b/processed_output/feedback_with_topics_and_sentiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="420">
   <si>
     <t>Date</t>
   </si>
@@ -103,12 +103,6 @@
     <t>Ross Cailliau - 100</t>
   </si>
   <si>
-    <t>Danny Thompson - 100</t>
-  </si>
-  <si>
-    <t>Gavin Croll - 100</t>
-  </si>
-  <si>
     <t>Jane Curtis - 100</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>Bidur Ghimire - 100</t>
   </si>
   <si>
-    <t>Mark Kenny - 100</t>
-  </si>
-  <si>
     <t>Troy Heycott - 100</t>
   </si>
   <si>
@@ -202,9 +193,6 @@
     <t>Tim Tobin - 100</t>
   </si>
   <si>
-    <t>Velvet Bridges - 100</t>
-  </si>
-  <si>
     <t>Priscilla Green - 100</t>
   </si>
   <si>
@@ -244,15 +232,12 @@
     <t>Cindy Schaefer - 100</t>
   </si>
   <si>
-    <t>Early Ramsay - 100</t>
+    <t>Kathleen Cunningham - 100</t>
   </si>
   <si>
     <t>Sophie Gatman - 100</t>
   </si>
   <si>
-    <t>Byron Carragher - 100</t>
-  </si>
-  <si>
     <t>Stacey Hursen - 100</t>
   </si>
   <si>
@@ -295,9 +280,6 @@
     <t>Atilla Bayram - 100</t>
   </si>
   <si>
-    <t>Louis Vineyard - 100</t>
-  </si>
-  <si>
     <t>Jean Maue - 100</t>
   </si>
   <si>
@@ -325,6 +307,12 @@
     <t>Mila Paramonova - 100</t>
   </si>
   <si>
+    <t>Bobby Ogle - 100</t>
+  </si>
+  <si>
+    <t>Shalini Sharma - 100</t>
+  </si>
+  <si>
     <t>Cindy Miller - 100</t>
   </si>
   <si>
@@ -355,12 +343,6 @@
     <t>AINST2169753</t>
   </si>
   <si>
-    <t>AINST2169510</t>
-  </si>
-  <si>
-    <t>AINST2169798</t>
-  </si>
-  <si>
     <t>AINST2169460</t>
   </si>
   <si>
@@ -373,9 +355,6 @@
     <t>AINST2173142</t>
   </si>
   <si>
-    <t>AINST2173589</t>
-  </si>
-  <si>
     <t>AINST2171142</t>
   </si>
   <si>
@@ -457,9 +436,6 @@
     <t>AINST2198527</t>
   </si>
   <si>
-    <t>AINST2200958</t>
-  </si>
-  <si>
     <t>AINST2201875</t>
   </si>
   <si>
@@ -499,15 +475,12 @@
     <t>AINST2203616</t>
   </si>
   <si>
-    <t>AINST2204707</t>
+    <t>AINST2208840</t>
   </si>
   <si>
     <t>AINST2212262</t>
   </si>
   <si>
-    <t>AINST2209964</t>
-  </si>
-  <si>
     <t>AINST2211353</t>
   </si>
   <si>
@@ -550,9 +523,6 @@
     <t>AINST2217094</t>
   </si>
   <si>
-    <t>AINST2214789</t>
-  </si>
-  <si>
     <t>AINST2215230</t>
   </si>
   <si>
@@ -583,6 +553,12 @@
     <t>AINST2224729</t>
   </si>
   <si>
+    <t>AINST2223116</t>
+  </si>
+  <si>
+    <t>AINST2221358</t>
+  </si>
+  <si>
     <t>AINST2227563</t>
   </si>
   <si>
@@ -619,12 +595,6 @@
     <t>INC2176731</t>
   </si>
   <si>
-    <t>SCTASK0952272</t>
-  </si>
-  <si>
-    <t>SCTASK1016722</t>
-  </si>
-  <si>
     <t>INC2224885</t>
   </si>
   <si>
@@ -637,9 +607,6 @@
     <t>SCTASK1012760</t>
   </si>
   <si>
-    <t>INC2241184</t>
-  </si>
-  <si>
     <t>SCTASK1017751</t>
   </si>
   <si>
@@ -721,9 +688,6 @@
     <t>INC2191816</t>
   </si>
   <si>
-    <t>INC2253080</t>
-  </si>
-  <si>
     <t>INC2209526</t>
   </si>
   <si>
@@ -763,15 +727,12 @@
     <t>RITM0944045</t>
   </si>
   <si>
-    <t>RITM0946828</t>
+    <t>INC2203927</t>
   </si>
   <si>
     <t>RITM0917922</t>
   </si>
   <si>
-    <t>RITM0949650</t>
-  </si>
-  <si>
     <t>INC2231527</t>
   </si>
   <si>
@@ -814,9 +775,6 @@
     <t>INC2260502</t>
   </si>
   <si>
-    <t>INC2237512</t>
-  </si>
-  <si>
     <t>RITM0951117</t>
   </si>
   <si>
@@ -847,6 +805,12 @@
     <t>RITM0949579</t>
   </si>
   <si>
+    <t>INC2259272</t>
+  </si>
+  <si>
+    <t>RITM0956285</t>
+  </si>
+  <si>
     <t>INC2265282</t>
   </si>
   <si>
@@ -871,108 +835,102 @@
     <t>Bharathkumar Senthamaraikannan</t>
   </si>
   <si>
+    <t>Manjit Sarkar</t>
+  </si>
+  <si>
+    <t>SaiBhargavi Chepuri</t>
+  </si>
+  <si>
+    <t>Prasad Bandla</t>
+  </si>
+  <si>
+    <t>MdSohailVassem Hussain</t>
+  </si>
+  <si>
+    <t>Power Automate</t>
+  </si>
+  <si>
+    <t>Paulraita T</t>
+  </si>
+  <si>
+    <t>Ravi Chakali</t>
+  </si>
+  <si>
+    <t>Kalluru MuraliKrishnaReddy</t>
+  </si>
+  <si>
+    <t>Anusha Nadageri</t>
+  </si>
+  <si>
+    <t>Bharathkumar Madiwalar</t>
+  </si>
+  <si>
+    <t>Somiran Rakshit</t>
+  </si>
+  <si>
+    <t>Asutosh Nayak</t>
+  </si>
+  <si>
+    <t>Vidhya Dharmaraj</t>
+  </si>
+  <si>
+    <t>Yogesh R</t>
+  </si>
+  <si>
+    <t>Saikumar Singamaneni</t>
+  </si>
+  <si>
+    <t>Manisha Singh</t>
+  </si>
+  <si>
+    <t>Priti Sawale</t>
+  </si>
+  <si>
+    <t>Prudhviraj Gunti</t>
+  </si>
+  <si>
+    <t>Indira Ganji</t>
+  </si>
+  <si>
+    <t>USHA KG</t>
+  </si>
+  <si>
+    <t>Johar Ahmed</t>
+  </si>
+  <si>
+    <t>Devendra Kothavolla</t>
+  </si>
+  <si>
+    <t>Sivakumar Balakrishnan</t>
+  </si>
+  <si>
+    <t>Vicky Jamadar</t>
+  </si>
+  <si>
+    <t>Moffasil Pasha</t>
+  </si>
+  <si>
+    <t>Nithesh Mitta</t>
+  </si>
+  <si>
+    <t>NitishS Dani</t>
+  </si>
+  <si>
+    <t>CSanthosh Kumar</t>
+  </si>
+  <si>
+    <t>Nickson Annskar</t>
+  </si>
+  <si>
+    <t>SaiPrasad Chandaka</t>
+  </si>
+  <si>
+    <t>Shasikala Peddanaggari</t>
+  </si>
+  <si>
     <t>Shivaraj Siddaraju</t>
   </si>
   <si>
-    <t>Sharath Joshi</t>
-  </si>
-  <si>
-    <t>Manjit Sarkar</t>
-  </si>
-  <si>
-    <t>SaiBhargavi Chepuri</t>
-  </si>
-  <si>
-    <t>Prasad Bandla</t>
-  </si>
-  <si>
-    <t>MdSohailVassem Hussain</t>
-  </si>
-  <si>
-    <t>Power Automate</t>
-  </si>
-  <si>
-    <t>Paulraita T</t>
-  </si>
-  <si>
-    <t>Ravi Chakali</t>
-  </si>
-  <si>
-    <t>Kalluru MuraliKrishnaReddy</t>
-  </si>
-  <si>
-    <t>Anusha Nadageri</t>
-  </si>
-  <si>
-    <t>Bharathkumar Madiwalar</t>
-  </si>
-  <si>
-    <t>Somiran Rakshit</t>
-  </si>
-  <si>
-    <t>Asutosh Nayak</t>
-  </si>
-  <si>
-    <t>Vidhya Dharmaraj</t>
-  </si>
-  <si>
-    <t>Yogesh R</t>
-  </si>
-  <si>
-    <t>Saikumar Singamaneni</t>
-  </si>
-  <si>
-    <t>Manisha Singh</t>
-  </si>
-  <si>
-    <t>Priti Sawale</t>
-  </si>
-  <si>
-    <t>Prudhviraj Gunti</t>
-  </si>
-  <si>
-    <t>Indira Ganji</t>
-  </si>
-  <si>
-    <t>USHA KG</t>
-  </si>
-  <si>
-    <t>Johar Ahmed</t>
-  </si>
-  <si>
-    <t>Devendra Kothavolla</t>
-  </si>
-  <si>
-    <t>Sivakumar Balakrishnan</t>
-  </si>
-  <si>
-    <t>Vicky Jamadar</t>
-  </si>
-  <si>
-    <t>Shiva Shankar</t>
-  </si>
-  <si>
-    <t>Moffasil Pasha</t>
-  </si>
-  <si>
-    <t>Nithesh Mitta</t>
-  </si>
-  <si>
-    <t>NitishS Dani</t>
-  </si>
-  <si>
-    <t>CSanthosh Kumar</t>
-  </si>
-  <si>
-    <t>Nickson Annskar</t>
-  </si>
-  <si>
-    <t>SaiPrasad Chandaka</t>
-  </si>
-  <si>
-    <t>Roja Elumalai</t>
-  </si>
-  <si>
     <t>Sumana SagarJ</t>
   </si>
   <si>
@@ -1003,10 +961,10 @@
     <t>ManikantaReddy Palampalli</t>
   </si>
   <si>
+    <t>Manas Shivakumar</t>
+  </si>
+  <si>
     <t>PavanGanesh Changala</t>
-  </si>
-  <si>
-    <t>Manas Shivakumar</t>
   </si>
   <si>
     <t>RajeshKumar Nara</t>
@@ -1070,12 +1028,6 @@
     <t>Hi, this incident sat with IT for extended period and they did not help me fix. I fixed it myself.  Poor service. Sorry, that I have to say this.</t>
   </si>
   <si>
-    <t>Until Andy stepped in with instructions, we were going around in circles</t>
-  </si>
-  <si>
-    <t>Lots of pauses in the communications leaving me unsure of status. I was also unsure on a number of occasions what was expected from me to assist resolve (e.g. I was asked to open Jacobs apps but it was not clear that this was what was expected and no requests for me to provide progress in doing so).</t>
-  </si>
-  <si>
     <t>As someone who is supposed to be using CAD on a regular basis, it was a little bonkers that it took so long for me to be able to use it again. It was also a hassle for my team to find work not using CAD.</t>
   </si>
   <si>
@@ -1086,9 +1038,6 @@
   </si>
   <si>
     <t xml:space="preserve">The request was for printing some site visit documents while I was working in the office. Unfortunately, the response came too late, the following day, and it's no longer relevant then. </t>
-  </si>
-  <si>
-    <t>Was asked to get in touch with one javelin directly - but still haven't had a response</t>
   </si>
   <si>
     <t>Teams page was setup extremely quick which was great but the additional members in the CSV file attached to the ticket were not included. Unfortunately the ticket had been closed and there's no way of opening it so I had to raise a new ticket.</t>
@@ -1174,9 +1123,6 @@
     <t>First, everyone I talked to was helpful and professional. However, it took way too long for someone to actually address the issue and it still isn't fixed. I give up at this point....</t>
   </si>
   <si>
-    <t>This request was not fulfill like many others</t>
-  </si>
-  <si>
     <t xml:space="preserve">Issue took more than 2 months of back and forth and was not resolved. </t>
   </si>
   <si>
@@ -1216,10 +1162,10 @@
     <t>the ticket was closed before the issue was resolved</t>
   </si>
   <si>
+    <t>Really difficult to solve - no support given - I've found a solution that works, but know it's a situation that will affect many team members and therefore should have the support in place to figure it out</t>
+  </si>
+  <si>
     <t>Ordered wrong monitor and closed ticket</t>
-  </si>
-  <si>
-    <t>I did not raise this request</t>
   </si>
   <si>
     <t>Issue was not resolved.  I waited weeks and IT tells me to contact SP column instead.</t>
@@ -1268,9 +1214,6 @@
     <t xml:space="preserve">PC fun noise is still ongoing. How come do IT closes the ticket before reaching out. </t>
   </si>
   <si>
-    <t>Service for this issue (INC2237512) has been terrible, and the issue is still not fixed. The computer resets once or twice a week by attempting to delete my OneDrive files and resetting basic settings like what programs are in the Task Bar, deleting saved bookmarks on my internet browser, and logging me out of programs like AutoDesk Connector. It also affects my access to Outlook and Teams severely hindering my ability to get work done. The actions seem similar to short term memory loss. The only saving grace is I have recently received a new computer and hope that will alleviate the issue. I opened this issue on 6/23, was contacted outside of my working hours initially, and not contacted again until 2 days later. The issue was "resolved", but it occurred again about a week later. It took multiple days for IT to respond, and they responded to me on a US holiday (7/4). I was able to contact the IT person on the next workday (7/7) but since it had been so long, the problem was no longer present (computer fixed itself maybe) and the IT person didn't do anything. The issue reoccurred two days later around 9 am my time. I posted something in the ticket about the issue and was not contacted until after working hours again. The IT person did not follow up with me again until 5 days later. At this point I was on PTO and did not have access. So, the IT person took it upon themselves to close the ticket without confirming with me on my status. It is probably better because it is easier and less time consuming to let the computer run through its issues and reset versus letting IT poke around on my computer for over an hour and not solving anything. The Help Desk is too slow to deal with these types of issues, and it is increasingly frustrating there is not a local IT person available to talk to and show first-hand what is happening to my computer. This experience has made me more likely to avoid using Help Desk for IT issues and try to find my own work around.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This ticket was closed without resolution even though it was clearly communicated those requesting access did not have access.  Access was the only reason the ticket was submitted.  The person continued to badger to close the ticket while the team was checking.  He called 4 times within less than 30 min. while I was on the road and could not answer the phone.  Then he closed the ticket right after that knowing the team did not have access.   </t>
   </si>
   <si>
@@ -1301,6 +1244,13 @@
     <t xml:space="preserve">The software requested was not installed and when I tried to do it myself - it is not working. I asked for help but did not get any help. </t>
   </si>
   <si>
+    <t>request stated problem with license and need quick resolution for drawing package issue that day.
+I had already resolved the issue when IT responded 5 days after the request was submitted.</t>
+  </si>
+  <si>
+    <t>THEY CLOSED MY REQUEST WITHOUT RESOLVING AND INFORMING ME.</t>
+  </si>
+  <si>
     <t>The issue is not resolved and saying that it is a Microsoft issue is not a resolution.  I am having significant issues and not able to perform my job due to the issues.  Please contact me.</t>
   </si>
   <si>
@@ -1310,22 +1260,25 @@
     <t>Unclear</t>
   </si>
   <si>
+    <t>Strong Negative</t>
+  </si>
+  <si>
+    <t>Mild Negative</t>
+  </si>
+  <si>
     <t>Actionable</t>
   </si>
   <si>
-    <t>Strong Negative</t>
-  </si>
-  <si>
-    <t>Mild Negative</t>
-  </si>
-  <si>
-    <t>Software Update Process</t>
+    <t>IT Software Update</t>
   </si>
   <si>
     <t>Resolved Issue</t>
   </si>
   <si>
-    <t>Was Transfer  I understand that you are asking for the refinement of a label from "the to was" into an improved, human-readable and concise format. After careful consideration, I suggest "Transfer Completed." This title is brief, easy to comprehend, and suggests that some sort of transfer or change has been executed or completed.</t>
+    <t>Closed Task</t>
+  </si>
+  <si>
+    <t>Closed Ticket</t>
   </si>
   <si>
     <t>Jul,25</t>
@@ -1690,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,49 +1728,49 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N2" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="P2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="Q2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R2" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S2">
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="U2" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1834,43 +1787,43 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N3" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="P3" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="R3" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U3" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1887,49 +1840,49 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L4" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="M4" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N4" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P4" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="Q4" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="R4" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U4" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1946,49 +1899,49 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="M5" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N5" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P5" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="Q5" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R5" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="U5" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2005,49 +1958,49 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L6" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="M6" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N6" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="P6" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="Q6" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R6" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="S6">
         <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="U6" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2064,49 +2017,49 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="M7" t="s">
+        <v>320</v>
+      </c>
+      <c r="N7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P7" t="s">
         <v>334</v>
       </c>
-      <c r="N7" t="s">
-        <v>340</v>
-      </c>
-      <c r="P7" t="s">
-        <v>348</v>
-      </c>
       <c r="Q7" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R7" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="U7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2123,49 +2076,49 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" t="s">
         <v>191</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" t="s">
-        <v>199</v>
-      </c>
       <c r="L8" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="M8" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N8" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="P8" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Q8" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R8" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U8" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2182,49 +2135,49 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" t="s">
         <v>192</v>
       </c>
-      <c r="K9" t="s">
-        <v>200</v>
-      </c>
       <c r="L9" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="M9" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N9" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P9" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="Q9" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R9" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U9" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2241,54 +2194,54 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L10" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="M10" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N10" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="P10" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="Q10" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="R10" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="U10" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="2">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2300,54 +2253,54 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J11" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L11" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="M11" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N11" t="s">
+        <v>328</v>
+      </c>
+      <c r="P11" t="s">
         <v>338</v>
       </c>
-      <c r="P11" t="s">
-        <v>352</v>
-      </c>
       <c r="Q11" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="R11" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="U11" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="2">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2359,49 +2312,49 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L12" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M12" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N12" t="s">
+        <v>328</v>
+      </c>
+      <c r="P12" t="s">
         <v>339</v>
       </c>
-      <c r="P12" t="s">
-        <v>353</v>
-      </c>
       <c r="Q12" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="R12" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="U12" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2418,54 +2371,54 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K13" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L13" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="M13" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N13" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="P13" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="Q13" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R13" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="U13" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="2">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2477,54 +2430,54 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K14" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L14" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="M14" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N14" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="P14" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="Q14" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R14" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="U14" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="2">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2536,54 +2489,54 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K15" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L15" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="M15" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="N15" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="P15" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="Q15" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R15" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U15" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="2">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2595,54 +2548,54 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M16" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N16" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="P16" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="Q16" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="R16" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="U16" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="2">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2654,54 +2607,54 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="M17" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N17" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P17" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="Q17" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R17" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="U17" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="2">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2713,54 +2666,54 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="M18" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="N18" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="P18" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="Q18" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R18" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="U18" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="2">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2772,54 +2725,54 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="M19" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N19" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P19" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="Q19" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R19" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="U19" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="2">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2831,54 +2784,54 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="M20" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N20" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="P20" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="Q20" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R20" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="U20" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="2">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2890,54 +2843,54 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="M21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N21" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P21" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="Q21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R21" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="U21" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="2">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2949,49 +2902,49 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M22" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N22" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="P22" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="Q22" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R22" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T22" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="U22" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -3008,54 +2961,54 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="M23" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N23" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="P23" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="Q23" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R23" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="U23" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="2">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3067,54 +3020,54 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M24" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N24" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P24" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="Q24" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="R24" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T24" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="U24" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="2">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3126,54 +3079,54 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="M25" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N25" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P25" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="Q25" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R25" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="U25" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="2">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3185,49 +3138,49 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M26" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N26" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P26" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="Q26" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R26" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="U26" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -3244,54 +3197,54 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N27" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P27" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="Q27" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="R27" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="U27" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="2">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3303,54 +3256,54 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J28" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="M28" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N28" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P28" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="Q28" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R28" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="U28" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="2">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3362,54 +3315,54 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J29" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K29" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N29" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="P29" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="Q29" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R29" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U29" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="2">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3421,49 +3374,49 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J30" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K30" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M30" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N30" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="P30" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="Q30" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R30" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="U30" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -3480,54 +3433,54 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J31" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N31" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P31" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="Q31" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R31" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="U31" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="2">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3539,54 +3492,54 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G32" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K32" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N32" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P32" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="Q32" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R32" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="U32" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="2">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3598,54 +3551,54 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G33" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N33" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="P33" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="Q33" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R33" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="U33" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="2">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3657,54 +3610,54 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J34" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K34" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N34" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="P34" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q34" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R34" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="U34" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="2">
-        <v>45850</v>
+        <v>45852</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3716,54 +3669,54 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J35" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K35" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N35" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="P35" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="Q35" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R35" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="U35" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="2">
-        <v>45850</v>
+        <v>45853</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3775,54 +3728,54 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G36" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J36" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K36" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L36" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N36" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="P36" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="Q36" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R36" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U36" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="2">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3834,54 +3787,54 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G37" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J37" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L37" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N37" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="P37" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="Q37" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R37" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="U37" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="2">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3893,49 +3846,49 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G38" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J38" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K38" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="M38" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N38" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="P38" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="Q38" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="R38" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T38" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="U38" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3946,237 +3899,237 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J39" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="N39" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P39" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="Q39" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R39" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T39" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="U39" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="2">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G40" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J40" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K40" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="N40" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="P40" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="Q40" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R40" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U40" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="2">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G41" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J41" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K41" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L41" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="M41" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N41" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P41" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="Q41" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="R41" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="U41" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="2">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G42" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J42" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K42" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L42" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="M42" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="N42" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="P42" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="Q42" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R42" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="U42" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="2">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4188,54 +4141,54 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G43" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J43" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K43" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L43" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="M43" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="N43" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="P43" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="Q43" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R43" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="U43" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="2">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4247,49 +4200,49 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G44" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J44" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K44" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="M44" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N44" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="P44" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="Q44" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="R44" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U44" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -4306,49 +4259,49 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J45" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K45" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L45" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="M45" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N45" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="P45" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="Q45" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R45" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T45" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="U45" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -4365,49 +4318,49 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J46" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K46" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M46" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N46" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="P46" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="Q46" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R46" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U46" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -4424,49 +4377,49 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G47" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J47" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K47" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="M47" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="N47" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="P47" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="Q47" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R47" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T47" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="U47" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -4483,49 +4436,49 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G48" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J48" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K48" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L48" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="N48" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P48" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="Q48" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="R48" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="S48">
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="U48" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -4542,54 +4495,54 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G49" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J49" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K49" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L49" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="M49" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N49" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P49" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="Q49" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R49" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="U49" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="2">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4601,54 +4554,54 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G50" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J50" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K50" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L50" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M50" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N50" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="P50" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="Q50" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R50" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T50" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="U50" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="2">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4660,54 +4613,54 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G51" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J51" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L51" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="M51" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="N51" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="P51" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="Q51" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="R51" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T51" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="U51" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="2">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4719,54 +4672,54 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G52" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J52" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K52" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="L52" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M52" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="N52" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P52" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="Q52" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R52" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="U52" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="2">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4778,54 +4731,54 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G53" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J53" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K53" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L53" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M53" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N53" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P53" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="Q53" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R53" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="U53" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="2">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4837,54 +4790,54 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G54" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J54" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K54" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L54" t="s">
         <v>303</v>
       </c>
       <c r="M54" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N54" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="P54" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="Q54" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R54" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="U54" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="2">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4896,54 +4849,54 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G55" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J55" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K55" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L55" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M55" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N55" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="P55" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="Q55" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="R55" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="U55" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="2">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4955,54 +4908,54 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G56" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J56" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K56" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="L56" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="M56" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N56" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P56" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="Q56" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R56" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U56" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="2">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5014,54 +4967,54 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G57" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J57" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K57" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L57" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="M57" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N57" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P57" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="Q57" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R57" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T57" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="U57" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="2">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5073,54 +5026,54 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G58" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J58" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K58" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L58" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M58" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N58" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="P58" t="s">
-        <v>302</v>
+        <v>385</v>
       </c>
       <c r="Q58" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R58" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U58" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="2">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5132,54 +5085,54 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G59" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J59" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K59" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L59" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="M59" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N59" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="P59" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="Q59" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R59" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="U59" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="2">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5191,54 +5144,54 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G60" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J60" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K60" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L60" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M60" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N60" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="P60" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q60" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R60" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U60" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="2">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5250,54 +5203,54 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G61" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J61" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K61" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L61" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M61" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N61" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="P61" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="Q61" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R61" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U61" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="2">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -5309,54 +5262,54 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G62" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J62" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K62" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L62" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M62" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N62" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P62" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Q62" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R62" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S62">
         <v>2</v>
       </c>
       <c r="T62" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="U62" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="2">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -5368,49 +5321,49 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G63" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J63" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K63" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L63" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M63" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N63" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="P63" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="Q63" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R63" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T63" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="U63" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -5427,49 +5380,49 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G64" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J64" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K64" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L64" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="M64" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N64" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="P64" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="Q64" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R64" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="U64" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -5486,49 +5439,49 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G65" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J65" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K65" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L65" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="M65" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N65" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P65" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="Q65" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R65" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="U65" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -5545,49 +5498,49 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G66" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J66" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K66" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L66" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M66" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N66" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="P66" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="Q66" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R66" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="U66" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -5604,54 +5557,54 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G67" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J67" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K67" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L67" t="s">
+        <v>304</v>
+      </c>
+      <c r="M67" t="s">
+        <v>321</v>
+      </c>
+      <c r="N67" t="s">
         <v>324</v>
       </c>
-      <c r="M67" t="s">
-        <v>334</v>
-      </c>
-      <c r="N67" t="s">
-        <v>340</v>
-      </c>
       <c r="P67" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="Q67" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R67" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T67" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="U67" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="2">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -5663,54 +5616,54 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G68" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J68" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K68" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L68" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M68" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N68" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="P68" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="Q68" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R68" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="U68" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="2">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -5722,54 +5675,54 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G69" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K69" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="L69" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M69" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N69" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="P69" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="Q69" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R69" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="U69" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="2">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -5781,54 +5734,54 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G70" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J70" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K70" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M70" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N70" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P70" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="Q70" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R70" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="U70" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="2">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -5840,54 +5793,54 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G71" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J71" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K71" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L71" t="s">
+        <v>315</v>
+      </c>
+      <c r="M71" t="s">
+        <v>320</v>
+      </c>
+      <c r="N71" t="s">
         <v>326</v>
       </c>
-      <c r="M71" t="s">
-        <v>334</v>
-      </c>
-      <c r="N71" t="s">
-        <v>338</v>
-      </c>
       <c r="P71" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>320</v>
+      </c>
+      <c r="R71" t="s">
         <v>411</v>
       </c>
-      <c r="Q71" t="s">
-        <v>334</v>
-      </c>
-      <c r="R71" t="s">
-        <v>428</v>
-      </c>
       <c r="S71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T71" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="U71" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="2">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -5899,54 +5852,54 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G72" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J72" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K72" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L72" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M72" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="N72" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="P72" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="Q72" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R72" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T72" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="U72" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="2">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -5958,54 +5911,54 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G73" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J73" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K73" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L73" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="M73" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N73" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="P73" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="Q73" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R73" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="U73" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="2">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -6017,54 +5970,54 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K74" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L74" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M74" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N74" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="P74" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="Q74" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R74" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="U74" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="2">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -6076,467 +6029,467 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G75" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J75" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K75" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L75" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="M75" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N75" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="P75" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="Q75" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R75" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="U75" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="2">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G76" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J76" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K76" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L76" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M76" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N76" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="P76" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="Q76" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R76" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="U76" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="2">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G77" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J77" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K77" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L77" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="M77" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N77" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="P77" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="Q77" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R77" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T77" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="U77" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="2">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G78" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J78" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K78" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L78" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="M78" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N78" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="P78" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>320</v>
+      </c>
+      <c r="R78" t="s">
+        <v>411</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s">
         <v>418</v>
       </c>
-      <c r="Q78" t="s">
-        <v>334</v>
-      </c>
-      <c r="R78" t="s">
-        <v>430</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78" t="s">
-        <v>434</v>
-      </c>
       <c r="U78" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="2">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G79" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J79" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K79" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L79" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M79" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N79" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="P79" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="Q79" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R79" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T79" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="U79" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="2">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J80" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K80" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L80" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="M80" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N80" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="P80" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q80" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R80" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T80" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="U80" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="2">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G81" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J81" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K81" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L81" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="M81" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N81" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="P81" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="Q81" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="R81" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S81">
         <v>0</v>
       </c>
       <c r="T81" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="U81" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="2">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G82" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J82" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K82" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L82" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="M82" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N82" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P82" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="Q82" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="R82" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S82">
         <v>0</v>
       </c>
       <c r="T82" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="U82" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="2">
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -6548,282 +6501,46 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J83" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K83" t="s">
-        <v>274</v>
-      </c>
-      <c r="L83" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="M83" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N83" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="P83" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="Q83" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="R83" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T83" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="U83" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
-      <c r="A84" s="2">
-        <v>45866</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="D84" t="s">
-        <v>101</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
-        <v>187</v>
-      </c>
-      <c r="G84" t="s">
-        <v>191</v>
-      </c>
-      <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>191</v>
-      </c>
-      <c r="J84" t="s">
-        <v>192</v>
-      </c>
-      <c r="K84" t="s">
-        <v>275</v>
-      </c>
-      <c r="L84" t="s">
-        <v>288</v>
-      </c>
-      <c r="M84" t="s">
-        <v>334</v>
-      </c>
-      <c r="N84" t="s">
-        <v>341</v>
-      </c>
-      <c r="P84" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>334</v>
-      </c>
-      <c r="R84" t="s">
-        <v>428</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="T84" t="s">
-        <v>434</v>
-      </c>
-      <c r="U84" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
-      <c r="A85" s="2">
-        <v>45867</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
-        <v>102</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>188</v>
-      </c>
-      <c r="G85" t="s">
-        <v>191</v>
-      </c>
-      <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
-        <v>191</v>
-      </c>
-      <c r="J85" t="s">
-        <v>192</v>
-      </c>
-      <c r="K85" t="s">
-        <v>276</v>
-      </c>
-      <c r="L85" t="s">
-        <v>333</v>
-      </c>
-      <c r="M85" t="s">
-        <v>334</v>
-      </c>
-      <c r="N85" t="s">
-        <v>338</v>
-      </c>
-      <c r="P85" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>334</v>
-      </c>
-      <c r="R85" t="s">
-        <v>428</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
-      </c>
-      <c r="T85" t="s">
-        <v>432</v>
-      </c>
-      <c r="U85" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
-      <c r="A86" s="2">
-        <v>45868</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
-        <v>103</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>189</v>
-      </c>
-      <c r="G86" t="s">
-        <v>191</v>
-      </c>
-      <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>191</v>
-      </c>
-      <c r="J86" t="s">
-        <v>192</v>
-      </c>
-      <c r="K86" t="s">
-        <v>277</v>
-      </c>
-      <c r="L86" t="s">
-        <v>320</v>
-      </c>
-      <c r="M86" t="s">
-        <v>334</v>
-      </c>
-      <c r="N86" t="s">
-        <v>340</v>
-      </c>
-      <c r="P86" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>336</v>
-      </c>
-      <c r="R86" t="s">
-        <v>428</v>
-      </c>
-      <c r="S86">
-        <v>1</v>
-      </c>
-      <c r="T86" t="s">
-        <v>433</v>
-      </c>
-      <c r="U86" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
-      <c r="A87" s="2">
-        <v>45869</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="D87" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" t="s">
-        <v>190</v>
-      </c>
-      <c r="G87" t="s">
-        <v>191</v>
-      </c>
-      <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>191</v>
-      </c>
-      <c r="J87" t="s">
-        <v>192</v>
-      </c>
-      <c r="K87" t="s">
-        <v>278</v>
-      </c>
-      <c r="M87" t="s">
-        <v>334</v>
-      </c>
-      <c r="N87" t="s">
-        <v>338</v>
-      </c>
-      <c r="P87" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>336</v>
-      </c>
-      <c r="R87" t="s">
-        <v>428</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87" t="s">
-        <v>434</v>
-      </c>
-      <c r="U87" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/processed_output/feedback_with_topics_and_sentiment.xlsx
+++ b/processed_output/feedback_with_topics_and_sentiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="421">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,9 @@
     <t>Ross Cailliau - 100</t>
   </si>
   <si>
+    <t>Gavin Croll - 100</t>
+  </si>
+  <si>
     <t>Jane Curtis - 100</t>
   </si>
   <si>
@@ -112,7 +115,7 @@
     <t>Chris VanDyke - 100</t>
   </si>
   <si>
-    <t>Bidur Ghimire - 100</t>
+    <t>Suraj Suraj - 100</t>
   </si>
   <si>
     <t>Troy Heycott - 100</t>
@@ -160,9 +163,6 @@
     <t>Tammy Teal - 100</t>
   </si>
   <si>
-    <t>Carl Hague - 100</t>
-  </si>
-  <si>
     <t>Alana Homan - 100</t>
   </si>
   <si>
@@ -187,9 +187,6 @@
     <t>Andy Smith - 100</t>
   </si>
   <si>
-    <t>Deeana Stamm - 100</t>
-  </si>
-  <si>
     <t>Tim Tobin - 100</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>Lucjan Furgal - 100</t>
   </si>
   <si>
-    <t>Fernando Lascano - 100</t>
-  </si>
-  <si>
     <t>Tayla Featherstone - 100</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>Murad Ali - 100</t>
   </si>
   <si>
-    <t>Collin Sabin - 100</t>
-  </si>
-  <si>
     <t>Paul Bearn - 100</t>
   </si>
   <si>
@@ -280,6 +271,9 @@
     <t>Atilla Bayram - 100</t>
   </si>
   <si>
+    <t>Romina Hytte - 100</t>
+  </si>
+  <si>
     <t>Jean Maue - 100</t>
   </si>
   <si>
@@ -295,6 +289,9 @@
     <t>Heather Weeks - 100</t>
   </si>
   <si>
+    <t>Michelle Richardson - 100</t>
+  </si>
+  <si>
     <t>Adrienne Cerone - 100</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>Bobby Ogle - 100</t>
   </si>
   <si>
-    <t>Shalini Sharma - 100</t>
-  </si>
-  <si>
     <t>Cindy Miller - 100</t>
   </si>
   <si>
@@ -343,6 +337,9 @@
     <t>AINST2169753</t>
   </si>
   <si>
+    <t>AINST2169798</t>
+  </si>
+  <si>
     <t>AINST2169460</t>
   </si>
   <si>
@@ -352,7 +349,7 @@
     <t>AINST2174313</t>
   </si>
   <si>
-    <t>AINST2173142</t>
+    <t>AINST2172806</t>
   </si>
   <si>
     <t>AINST2171142</t>
@@ -400,9 +397,6 @@
     <t>AINST2189208</t>
   </si>
   <si>
-    <t>AINST2188048</t>
-  </si>
-  <si>
     <t>AINST2189191</t>
   </si>
   <si>
@@ -427,9 +421,6 @@
     <t>AINST2195679</t>
   </si>
   <si>
-    <t>AINST2194348</t>
-  </si>
-  <si>
     <t>AINST2197748</t>
   </si>
   <si>
@@ -442,9 +433,6 @@
     <t>AINST2202963</t>
   </si>
   <si>
-    <t>AINST2203287</t>
-  </si>
-  <si>
     <t>AINST2202025</t>
   </si>
   <si>
@@ -454,9 +442,6 @@
     <t>AINST2199798</t>
   </si>
   <si>
-    <t>AINST2201400</t>
-  </si>
-  <si>
     <t>AINST2196095</t>
   </si>
   <si>
@@ -475,6 +460,9 @@
     <t>AINST2203616</t>
   </si>
   <si>
+    <t>AINST2209224</t>
+  </si>
+  <si>
     <t>AINST2208840</t>
   </si>
   <si>
@@ -523,6 +511,9 @@
     <t>AINST2217094</t>
   </si>
   <si>
+    <t>AINST2214893</t>
+  </si>
+  <si>
     <t>AINST2215230</t>
   </si>
   <si>
@@ -538,6 +529,9 @@
     <t>AINST2217956</t>
   </si>
   <si>
+    <t>AINST2217734</t>
+  </si>
+  <si>
     <t>AINST2222505</t>
   </si>
   <si>
@@ -556,12 +550,12 @@
     <t>AINST2223116</t>
   </si>
   <si>
-    <t>AINST2221358</t>
-  </si>
-  <si>
     <t>AINST2227563</t>
   </si>
   <si>
+    <t>AINST2227821</t>
+  </si>
+  <si>
     <t>AINST2228205</t>
   </si>
   <si>
@@ -595,6 +589,9 @@
     <t>INC2176731</t>
   </si>
   <si>
+    <t>SCTASK1016722</t>
+  </si>
+  <si>
     <t>INC2224885</t>
   </si>
   <si>
@@ -604,7 +601,7 @@
     <t>INC2241648</t>
   </si>
   <si>
-    <t>SCTASK1012760</t>
+    <t>INC2241035</t>
   </si>
   <si>
     <t>SCTASK1017751</t>
@@ -652,9 +649,6 @@
     <t>INC2248190</t>
   </si>
   <si>
-    <t>RITM0936987</t>
-  </si>
-  <si>
     <t>INC2246965</t>
   </si>
   <si>
@@ -679,9 +673,6 @@
     <t>INC2242893</t>
   </si>
   <si>
-    <t>RITM0935770</t>
-  </si>
-  <si>
     <t>INC2251035</t>
   </si>
   <si>
@@ -694,9 +685,6 @@
     <t>INC2256677</t>
   </si>
   <si>
-    <t>INC2250080</t>
-  </si>
-  <si>
     <t>INC2253847</t>
   </si>
   <si>
@@ -706,9 +694,6 @@
     <t>RITM0943827</t>
   </si>
   <si>
-    <t>INC2248914</t>
-  </si>
-  <si>
     <t>RITM0936076</t>
   </si>
   <si>
@@ -727,6 +712,9 @@
     <t>RITM0944045</t>
   </si>
   <si>
+    <t>INC2242773</t>
+  </si>
+  <si>
     <t>INC2203927</t>
   </si>
   <si>
@@ -775,6 +763,9 @@
     <t>INC2260502</t>
   </si>
   <si>
+    <t>INC2254166</t>
+  </si>
+  <si>
     <t>RITM0951117</t>
   </si>
   <si>
@@ -790,6 +781,9 @@
     <t>INC2260960</t>
   </si>
   <si>
+    <t>INC2260096</t>
+  </si>
+  <si>
     <t>INC2196104</t>
   </si>
   <si>
@@ -808,12 +802,12 @@
     <t>INC2259272</t>
   </si>
   <si>
-    <t>RITM0956285</t>
-  </si>
-  <si>
     <t>INC2265282</t>
   </si>
   <si>
+    <t>INC2265365</t>
+  </si>
+  <si>
     <t>INC2265541</t>
   </si>
   <si>
@@ -835,6 +829,9 @@
     <t>Bharathkumar Senthamaraikannan</t>
   </si>
   <si>
+    <t>Sharath Joshi</t>
+  </si>
+  <si>
     <t>Manjit Sarkar</t>
   </si>
   <si>
@@ -844,75 +841,72 @@
     <t>Prasad Bandla</t>
   </si>
   <si>
+    <t>Vidhya Dharmaraj</t>
+  </si>
+  <si>
+    <t>Power Automate</t>
+  </si>
+  <si>
+    <t>Paulraita T</t>
+  </si>
+  <si>
+    <t>Ravi Chakali</t>
+  </si>
+  <si>
+    <t>Kalluru MuraliKrishnaReddy</t>
+  </si>
+  <si>
+    <t>Anusha Nadageri</t>
+  </si>
+  <si>
+    <t>Bharathkumar Madiwalar</t>
+  </si>
+  <si>
+    <t>Somiran Rakshit</t>
+  </si>
+  <si>
+    <t>Asutosh Nayak</t>
+  </si>
+  <si>
+    <t>Yogesh R</t>
+  </si>
+  <si>
+    <t>Saikumar Singamaneni</t>
+  </si>
+  <si>
+    <t>Priti Sawale</t>
+  </si>
+  <si>
+    <t>Prudhviraj Gunti</t>
+  </si>
+  <si>
+    <t>Indira Ganji</t>
+  </si>
+  <si>
+    <t>USHA KG</t>
+  </si>
+  <si>
+    <t>Johar Ahmed</t>
+  </si>
+  <si>
+    <t>Sivakumar Balakrishnan</t>
+  </si>
+  <si>
+    <t>Vicky Jamadar</t>
+  </si>
+  <si>
     <t>MdSohailVassem Hussain</t>
   </si>
   <si>
-    <t>Power Automate</t>
-  </si>
-  <si>
-    <t>Paulraita T</t>
-  </si>
-  <si>
-    <t>Ravi Chakali</t>
-  </si>
-  <si>
-    <t>Kalluru MuraliKrishnaReddy</t>
-  </si>
-  <si>
-    <t>Anusha Nadageri</t>
-  </si>
-  <si>
-    <t>Bharathkumar Madiwalar</t>
-  </si>
-  <si>
-    <t>Somiran Rakshit</t>
-  </si>
-  <si>
-    <t>Asutosh Nayak</t>
-  </si>
-  <si>
-    <t>Vidhya Dharmaraj</t>
-  </si>
-  <si>
-    <t>Yogesh R</t>
-  </si>
-  <si>
-    <t>Saikumar Singamaneni</t>
+    <t>Moffasil Pasha</t>
+  </si>
+  <si>
+    <t>Nithesh Mitta</t>
   </si>
   <si>
     <t>Manisha Singh</t>
   </si>
   <si>
-    <t>Priti Sawale</t>
-  </si>
-  <si>
-    <t>Prudhviraj Gunti</t>
-  </si>
-  <si>
-    <t>Indira Ganji</t>
-  </si>
-  <si>
-    <t>USHA KG</t>
-  </si>
-  <si>
-    <t>Johar Ahmed</t>
-  </si>
-  <si>
-    <t>Devendra Kothavolla</t>
-  </si>
-  <si>
-    <t>Sivakumar Balakrishnan</t>
-  </si>
-  <si>
-    <t>Vicky Jamadar</t>
-  </si>
-  <si>
-    <t>Moffasil Pasha</t>
-  </si>
-  <si>
-    <t>Nithesh Mitta</t>
-  </si>
-  <si>
     <t>NitishS Dani</t>
   </si>
   <si>
@@ -961,6 +955,9 @@
     <t>ManikantaReddy Palampalli</t>
   </si>
   <si>
+    <t>Kavyasri Mupparaju</t>
+  </si>
+  <si>
     <t>Manas Shivakumar</t>
   </si>
   <si>
@@ -970,10 +967,16 @@
     <t>RajeshKumar Nara</t>
   </si>
   <si>
+    <t>Vineetha Cheerla</t>
+  </si>
+  <si>
     <t>Mohammed Shafi</t>
   </si>
   <si>
     <t>Veerrajamma Korla</t>
+  </si>
+  <si>
+    <t>Sanjay Perumal</t>
   </si>
   <si>
     <t>No</t>
@@ -1028,6 +1031,9 @@
     <t>Hi, this incident sat with IT for extended period and they did not help me fix. I fixed it myself.  Poor service. Sorry, that I have to say this.</t>
   </si>
   <si>
+    <t>Lots of pauses in the communications leaving me unsure of status. I was also unsure on a number of occasions what was expected from me to assist resolve (e.g. I was asked to open Jacobs apps but it was not clear that this was what was expected and no requests for me to provide progress in doing so).</t>
+  </si>
+  <si>
     <t>As someone who is supposed to be using CAD on a regular basis, it was a little bonkers that it took so long for me to be able to use it again. It was also a hassle for my team to find work not using CAD.</t>
   </si>
   <si>
@@ -1037,7 +1043,7 @@
     <t>Problem was not fixed.  It reappeared after next login</t>
   </si>
   <si>
-    <t xml:space="preserve">The request was for printing some site visit documents while I was working in the office. Unfortunately, the response came too late, the following day, and it's no longer relevant then. </t>
+    <t>Teams still not working</t>
   </si>
   <si>
     <t>Teams page was setup extremely quick which was great but the additional members in the CSV file attached to the ticket were not included. Unfortunately the ticket had been closed and there's no way of opening it so I had to raise a new ticket.</t>
@@ -1086,9 +1092,6 @@
     <t xml:space="preserve">I've never had such a difficult experience. The IT individual was rude and constantly did not listen to me. I would type in the chat or say things on the phone and it was apparent they were not paying attention because they would ask me questions that I already provided. They insisted what I was experiencing was a WiFi issue but I explained several times it could not be a WiFi issue since I was able to chat with them through an internet browser on my work laptop and that my internet said "connected, secured" and the internet was toggled on. If I was not connected to the internet, I would not have been able to chat with them on the IT chat. Also, they were rude and irritated that I was not answering their teams calls even though I explained MULTIPLE times that my teams wasn't working and was giving me an error saying there was something wrong with the authentication. They also got irritated and said I was not following the correct steps when attempting to remote in. I followed the steps but it did not work. I have successfully had others remote in numerous times on other occasions and I am very familiar with the process. They would say things such as, "How can I help you if you won't pick up or let me remote in?" I explained that I wasn't trying to be difficult or not resolve the issue, but what they were saying wasn't working. I mentioned that something may be wrong that they may not know and asked if they could escalate my ticket or have someone else look at it and they refused. What resolved the issue was an additional laptop restart. However, I want to mention that I had already did a laptop restart BEFORE contacting him. I also made sure that I was connected to WiFi and that it was toggled on. Other devices such as my phone were connected to the WiFi and working just fine. In the notes, they noted that what fixed it was turning WiFi off and back on, which is untrue. Overall, I am just shocked at the overall quality of service. It has been a very long time I have experienced someone so rude and dismissive. </t>
   </si>
   <si>
-    <t xml:space="preserve">poor understanding of the problem. problem now reoccurred </t>
-  </si>
-  <si>
     <t xml:space="preserve">The person tried, but it came back the next day. Not sure why it is being installed again and again. I need someone to figure out why it won't uninstall. Same for the VDI, it is on there and I don't need it.
 </t>
   </si>
@@ -1114,9 +1117,6 @@
     <t>I spent to much time on trying to get this resolved via help hub.</t>
   </si>
   <si>
-    <t>Original Tier 1 support technician did not understand the request was or a software install, tried reaching me through inactive means of communication and failed to read updates I made to the ticket on how to reach me.  Once I reached out via the chatbot, my ticket was quickly passed to the correct tier, the new technician reached out immediately via the appropriate means to communicate with me, and the ticket was resolved within minutes.  I recommend the Tier 1 support technician that originally responded to my ticket be reminded of the correct way to triage tickets.</t>
-  </si>
-  <si>
     <t xml:space="preserve">the uninstaller could not even be run by the IT specialist. Why role out software that slows the machines down if it then cannot be run? </t>
   </si>
   <si>
@@ -1129,9 +1129,6 @@
     <t>Situations like that should be resolved immediately as they often hold the work.</t>
   </si>
   <si>
-    <t>Everything seems to be low-priority for the IT personnel. I suggest getting rid of the priority definition. I couldn't access my emails and wasn't receiving notifications from meetings for about a week due to this particular issue. If everybody that responds to these issues is from India, I suggest changing their work schedule to accommodate to the US schedule because they typically respond outside working hours in the US.</t>
-  </si>
-  <si>
     <t>issue not resolved by IT team. advised to order new docking station whereas this was resolved by myself by updating a driver for free instead.</t>
   </si>
   <si>
@@ -1141,9 +1138,6 @@
     <t>The issue resolved in 2 and half days</t>
   </si>
   <si>
-    <t>I learned that my coworkers were experiencing this same issue and there was no wide-spread communication from IT to notify anyone that it was being investigated. This was a major miss that should have been stated as most employees use Outlook regularly, and the outage significantly impacted user efficiency.</t>
-  </si>
-  <si>
     <t>I still don't have access to the requested resource, and IT still hasn't responded to my MSTeams chat regarding this.  IT's only goal seems to be to close tickets as fast as they can with no regard to whether the ticket item has actually been resolved.  Terrible, you should all be ashamed.</t>
   </si>
   <si>
@@ -1160,6 +1154,9 @@
   </si>
   <si>
     <t>the ticket was closed before the issue was resolved</t>
+  </si>
+  <si>
+    <t>I had to fix it my self, not an IT person. only got calls form IT when office before I fixed it.</t>
   </si>
   <si>
     <t>Really difficult to solve - no support given - I've found a solution that works, but know it's a situation that will affect many team members and therefore should have the support in place to figure it out</t>
@@ -1214,6 +1211,9 @@
     <t xml:space="preserve">PC fun noise is still ongoing. How come do IT closes the ticket before reaching out. </t>
   </si>
   <si>
+    <t>I need to have authentication methos for mobile log in on my mobile as I use my mobile when my laptop is not with me yet I have to use mobile pass on laptop to log in to mobile which is not a best approach or even possible. Thanks</t>
+  </si>
+  <si>
     <t xml:space="preserve">This ticket was closed without resolution even though it was clearly communicated those requesting access did not have access.  Access was the only reason the ticket was submitted.  The person continued to badger to close the ticket while the team was checking.  He called 4 times within less than 30 min. while I was on the road and could not answer the phone.  Then he closed the ticket right after that knowing the team did not have access.   </t>
   </si>
   <si>
@@ -1227,6 +1227,9 @@
   </si>
   <si>
     <t>No communication was made until the issue was resolved, then the ticket was just closed. It would be really nice to know if there is a known issue with email, or the network, instead of just leaving staff wondering what is happening and when it will be fixed. ETA on it being fixed would be very helpful.</t>
+  </si>
+  <si>
+    <t>The issue wasn't resolved.  My system continues to freeze constantly and spool to delete emails, It can take me up to a minute or 2 to delete a couple of emails at times.  This is an ongoing daily event.</t>
   </si>
   <si>
     <t xml:space="preserve">This ticket has been open for months.  None of the solutions have worked and actually caused more problems (i.e., my windows profile was "rebuilt" and all of my quick links were removed without backing up first - this is a major productivity concern and should be avoided in future).  The issue still persists, but only when I am working on shared documents through SharePoint, so I am not able to "check" whether the issue has been resolved until I am working on a document with someone else.  I was pushed by several IT consultants to close the ticket even though the issue is not resolved.  </t>
@@ -1248,12 +1251,12 @@
 I had already resolved the issue when IT responded 5 days after the request was submitted.</t>
   </si>
   <si>
-    <t>THEY CLOSED MY REQUEST WITHOUT RESOLVING AND INFORMING ME.</t>
-  </si>
-  <si>
     <t>The issue is not resolved and saying that it is a Microsoft issue is not a resolution.  I am having significant issues and not able to perform my job due to the issues.  Please contact me.</t>
   </si>
   <si>
+    <t>I was not missing my Teams button.  The issue is with my Outlook mailbox not functioning.  The issue has not been fixed and it is seriously affecting my ability to perform my job.</t>
+  </si>
+  <si>
     <t>The person I spoke to on phone was difficult/impossible to understand. The language barrier is a big problem. As it turns out he had no idea what he was doing and wasted 30 minutes of my time just to tell me I needed to submit a ticket.   The second person sent a message and everything was resolved within minutes without much discussion.</t>
   </si>
   <si>
@@ -1275,7 +1278,7 @@
     <t>Resolved Issue</t>
   </si>
   <si>
-    <t>Closed Task</t>
+    <t>Discontinued Service</t>
   </si>
   <si>
     <t>Closed Ticket</t>
@@ -1728,49 +1731,49 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" t="s">
         <v>183</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K2" t="s">
-        <v>185</v>
-      </c>
       <c r="L2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S2">
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1787,43 +1790,43 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" t="s">
         <v>184</v>
       </c>
-      <c r="K3" t="s">
-        <v>186</v>
-      </c>
       <c r="M3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1840,49 +1843,49 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1899,49 +1902,49 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1958,49 +1961,49 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S6">
         <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2017,49 +2020,49 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2076,49 +2079,49 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2135,49 +2138,49 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2194,54 +2197,54 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N10" t="s">
         <v>325</v>
       </c>
       <c r="P10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="U10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="2">
-        <v>45841</v>
+        <v>45840</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2253,49 +2256,49 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q11" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2312,49 +2315,49 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="U12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2371,37 +2374,37 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N13" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R13" t="s">
         <v>412</v>
@@ -2410,15 +2413,15 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="2">
-        <v>45842</v>
+        <v>45841</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2430,54 +2433,54 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N14" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s">
         <v>418</v>
       </c>
       <c r="U14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="2">
-        <v>45845</v>
+        <v>45842</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2489,25 +2492,25 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M15" t="s">
         <v>321</v>
@@ -2516,22 +2519,22 @@
         <v>325</v>
       </c>
       <c r="P15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="U15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2548,49 +2551,49 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="U16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -2607,54 +2610,54 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N17" t="s">
         <v>326</v>
       </c>
       <c r="P17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S17">
         <v>2</v>
       </c>
       <c r="T17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="2">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2666,49 +2669,49 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S18">
         <v>2</v>
       </c>
       <c r="T18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -2725,54 +2728,54 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N19" t="s">
         <v>327</v>
       </c>
       <c r="P19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R19" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U19" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="2">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2784,49 +2787,49 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N20" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2843,49 +2846,49 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="U21" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2902,49 +2905,49 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="M22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S22">
         <v>3</v>
       </c>
       <c r="T22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2961,54 +2964,54 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="M23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N23" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R23" t="s">
         <v>412</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="U23" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="2">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3020,49 +3023,49 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N24" t="s">
         <v>326</v>
       </c>
       <c r="P24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q24" t="s">
         <v>321</v>
       </c>
       <c r="R24" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U24" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -3079,49 +3082,49 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q25" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="R25" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="U25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -3138,49 +3141,49 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N26" t="s">
         <v>327</v>
       </c>
       <c r="P26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U26" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -3197,37 +3200,37 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="M27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N27" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R27" t="s">
         <v>412</v>
@@ -3236,15 +3239,15 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="2">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3256,49 +3259,49 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T28" t="s">
         <v>417</v>
       </c>
       <c r="U28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -3315,49 +3318,49 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P29" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R29" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="U29" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -3374,49 +3377,49 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P30" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S30">
         <v>2</v>
       </c>
       <c r="T30" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -3433,49 +3436,49 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -3492,49 +3495,49 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R32" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S32">
         <v>2</v>
       </c>
       <c r="T32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U32" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -3551,49 +3554,49 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P33" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U33" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -3610,49 +3613,49 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R34" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S34">
         <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U34" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -3669,49 +3672,49 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N35" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R35" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S35">
         <v>3</v>
       </c>
       <c r="T35" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U35" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3728,49 +3731,49 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R36" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U36" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3787,49 +3790,49 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L37" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P37" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q37" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R37" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U37" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3840,119 +3843,119 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L38" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N38" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P38" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q38" t="s">
         <v>321</v>
       </c>
       <c r="R38" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U38" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="2">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L39" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M39" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N39" t="s">
         <v>326</v>
       </c>
       <c r="P39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R39" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="U39" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="2">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3964,49 +3967,49 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L40" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N40" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P40" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R40" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U40" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -4023,49 +4026,49 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K41" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L41" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N41" t="s">
         <v>326</v>
       </c>
       <c r="P41" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R41" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U41" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -4082,49 +4085,49 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N42" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P42" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q42" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="R42" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U42" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -4141,49 +4144,49 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L43" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="M43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N43" t="s">
         <v>325</v>
       </c>
       <c r="P43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R43" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -4200,49 +4203,49 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N44" t="s">
         <v>326</v>
       </c>
       <c r="P44" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q44" t="s">
         <v>321</v>
       </c>
       <c r="R44" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U44" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -4259,49 +4262,49 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N45" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P45" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R45" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="U45" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -4318,54 +4321,54 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L46" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N46" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P46" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R46" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="U46" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="2">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4377,54 +4380,54 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L47" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N47" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P47" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R47" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S47">
         <v>3</v>
       </c>
       <c r="T47" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U47" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="2">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4436,54 +4439,54 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N48" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P48" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q48" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R48" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U48" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="2">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4495,49 +4498,49 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K49" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L49" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="M49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P49" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R49" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U49" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -4554,285 +4557,285 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L50" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R50" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="S50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="U50" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="2">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P51" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R51" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="U51" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="2">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L52" t="s">
         <v>301</v>
       </c>
       <c r="M52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R52" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T52" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="U52" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="2">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K53" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L53" t="s">
         <v>302</v>
       </c>
       <c r="M53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P53" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
       <c r="T53" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U53" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="2">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L54" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="M54" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N54" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P54" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q54" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R54" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T54" t="s">
         <v>417</v>
       </c>
       <c r="U54" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4843,55 +4846,55 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P55" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R55" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U55" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4902,173 +4905,173 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L56" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="M56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N56" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P56" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R56" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U56" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="2">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K57" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L57" t="s">
         <v>305</v>
       </c>
       <c r="M57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P57" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="U57" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="2">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L58" t="s">
         <v>306</v>
       </c>
       <c r="M58" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N58" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P58" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q58" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R58" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U58" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -5079,55 +5082,55 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s">
         <v>307</v>
       </c>
       <c r="M59" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N59" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P59" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q59" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R59" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U59" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -5138,55 +5141,55 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L60" t="s">
         <v>308</v>
       </c>
       <c r="M60" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N60" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P60" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q60" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R60" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T60" t="s">
         <v>416</v>
       </c>
       <c r="U60" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -5197,55 +5200,55 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L61" t="s">
         <v>309</v>
       </c>
       <c r="M61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N61" t="s">
         <v>327</v>
       </c>
       <c r="P61" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R61" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T61" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="U61" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -5256,55 +5259,55 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L62" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="M62" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N62" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P62" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q62" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R62" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="U62" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -5315,55 +5318,55 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L63" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="M63" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N63" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P63" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q63" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R63" t="s">
         <v>412</v>
       </c>
       <c r="S63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="U63" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -5374,55 +5377,55 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L64" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="M64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N64" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R64" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="U64" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -5433,173 +5436,173 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K65" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L65" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="M65" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P65" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q65" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R65" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U65" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="2">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N66" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P66" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R66" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U66" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="2">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K67" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L67" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M67" t="s">
         <v>321</v>
       </c>
       <c r="N67" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P67" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q67" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R67" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U67" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -5610,55 +5613,55 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K68" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L68" t="s">
         <v>313</v>
       </c>
       <c r="M68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P68" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R68" t="s">
         <v>412</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T68" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="U68" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -5669,114 +5672,114 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K69" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L69" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="M69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N69" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R69" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U69" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="2">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L70" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P70" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R70" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T70" t="s">
         <v>418</v>
       </c>
       <c r="U70" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -5787,55 +5790,55 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L71" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="M71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P71" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R71" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S71">
         <v>3</v>
       </c>
       <c r="T71" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U71" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5846,55 +5849,55 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K72" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L72" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="M72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N72" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P72" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R72" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T72" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="U72" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5905,55 +5908,55 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K73" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L73" t="s">
         <v>316</v>
       </c>
       <c r="M73" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P73" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q73" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R73" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U73" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5964,55 +5967,55 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K74" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L74" t="s">
         <v>317</v>
       </c>
       <c r="M74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N74" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P74" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R74" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T74" t="s">
         <v>418</v>
       </c>
       <c r="U74" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -6023,55 +6026,55 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K75" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N75" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P75" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R75" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U75" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -6082,55 +6085,55 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G76" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J76" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K76" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L76" t="s">
         <v>318</v>
       </c>
       <c r="M76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N76" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P76" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R76" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U76" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -6141,55 +6144,55 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J77" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K77" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L77" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N77" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P77" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R77" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S77">
         <v>2</v>
       </c>
       <c r="T77" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U77" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -6200,55 +6203,55 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K78" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M78" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N78" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P78" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q78" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R78" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S78">
         <v>1</v>
       </c>
       <c r="T78" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U78" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -6259,55 +6262,55 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J79" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K79" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L79" t="s">
         <v>319</v>
       </c>
       <c r="M79" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N79" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P79" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q79" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R79" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S79">
         <v>2</v>
       </c>
       <c r="T79" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U79" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -6318,114 +6321,114 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G80" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J80" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K80" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L80" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P80" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R80" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T80" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="U80" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="2">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L81" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N81" t="s">
         <v>327</v>
       </c>
       <c r="P81" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q81" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="R81" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S81">
         <v>0</v>
       </c>
       <c r="T81" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U81" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -6436,55 +6439,55 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K82" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L82" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="M82" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N82" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P82" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q82" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R82" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T82" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="U82" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -6495,52 +6498,52 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G83" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J83" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K83" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N83" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P83" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R83" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S83">
         <v>1</v>
       </c>
       <c r="T83" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U83" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/processed_output/feedback_with_topics_and_sentiment.xlsx
+++ b/processed_output/feedback_with_topics_and_sentiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="390">
   <si>
     <t>Date</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Ross Cailliau - 100</t>
   </si>
   <si>
-    <t>Gavin Croll - 100</t>
-  </si>
-  <si>
     <t>Jane Curtis - 100</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>Chris VanDyke - 100</t>
   </si>
   <si>
-    <t>Suraj Suraj - 100</t>
-  </si>
-  <si>
     <t>Troy Heycott - 100</t>
   </si>
   <si>
@@ -163,6 +157,9 @@
     <t>Tammy Teal - 100</t>
   </si>
   <si>
+    <t>Carl Hague - 100</t>
+  </si>
+  <si>
     <t>Alana Homan - 100</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
     <t>Andy Smith - 100</t>
   </si>
   <si>
+    <t>Deeana Stamm - 100</t>
+  </si>
+  <si>
     <t>Tim Tobin - 100</t>
   </si>
   <si>
@@ -196,6 +196,9 @@
     <t>Lucjan Furgal - 100</t>
   </si>
   <si>
+    <t>Fernando Lascano - 100</t>
+  </si>
+  <si>
     <t>Tayla Featherstone - 100</t>
   </si>
   <si>
@@ -211,9 +214,6 @@
     <t>James Facer - 100</t>
   </si>
   <si>
-    <t>Natalie Nicholson - 100</t>
-  </si>
-  <si>
     <t>Bruce Engelbrecht - 100</t>
   </si>
   <si>
@@ -223,9 +223,6 @@
     <t>Cindy Schaefer - 100</t>
   </si>
   <si>
-    <t>Kathleen Cunningham - 100</t>
-  </si>
-  <si>
     <t>Sophie Gatman - 100</t>
   </si>
   <si>
@@ -265,15 +262,9 @@
     <t>Alex Liu - 100</t>
   </si>
   <si>
-    <t>Leo Marsh - 100</t>
-  </si>
-  <si>
     <t>Atilla Bayram - 100</t>
   </si>
   <si>
-    <t>Romina Hytte - 100</t>
-  </si>
-  <si>
     <t>Jean Maue - 100</t>
   </si>
   <si>
@@ -289,9 +280,6 @@
     <t>Heather Weeks - 100</t>
   </si>
   <si>
-    <t>Michelle Richardson - 100</t>
-  </si>
-  <si>
     <t>Adrienne Cerone - 100</t>
   </si>
   <si>
@@ -310,9 +298,6 @@
     <t>Cindy Miller - 100</t>
   </si>
   <si>
-    <t>Keith Paxton - 100</t>
-  </si>
-  <si>
     <t>AINST2167368</t>
   </si>
   <si>
@@ -337,9 +322,6 @@
     <t>AINST2169753</t>
   </si>
   <si>
-    <t>AINST2169798</t>
-  </si>
-  <si>
     <t>AINST2169460</t>
   </si>
   <si>
@@ -349,9 +331,6 @@
     <t>AINST2174313</t>
   </si>
   <si>
-    <t>AINST2172806</t>
-  </si>
-  <si>
     <t>AINST2171142</t>
   </si>
   <si>
@@ -397,6 +376,9 @@
     <t>AINST2189208</t>
   </si>
   <si>
+    <t>AINST2188048</t>
+  </si>
+  <si>
     <t>AINST2189191</t>
   </si>
   <si>
@@ -421,6 +403,9 @@
     <t>AINST2195679</t>
   </si>
   <si>
+    <t>AINST2194348</t>
+  </si>
+  <si>
     <t>AINST2197748</t>
   </si>
   <si>
@@ -433,6 +418,9 @@
     <t>AINST2202963</t>
   </si>
   <si>
+    <t>AINST2203287</t>
+  </si>
+  <si>
     <t>AINST2202025</t>
   </si>
   <si>
@@ -448,9 +436,6 @@
     <t>AINST2200670</t>
   </si>
   <si>
-    <t>AINST2203659</t>
-  </si>
-  <si>
     <t>AINST2202787</t>
   </si>
   <si>
@@ -460,12 +445,6 @@
     <t>AINST2203616</t>
   </si>
   <si>
-    <t>AINST2209224</t>
-  </si>
-  <si>
-    <t>AINST2208840</t>
-  </si>
-  <si>
     <t>AINST2212262</t>
   </si>
   <si>
@@ -505,15 +484,9 @@
     <t>AINST2209739</t>
   </si>
   <si>
-    <t>AINST2214983</t>
-  </si>
-  <si>
     <t>AINST2217094</t>
   </si>
   <si>
-    <t>AINST2214893</t>
-  </si>
-  <si>
     <t>AINST2215230</t>
   </si>
   <si>
@@ -529,9 +502,6 @@
     <t>AINST2217956</t>
   </si>
   <si>
-    <t>AINST2217734</t>
-  </si>
-  <si>
     <t>AINST2222505</t>
   </si>
   <si>
@@ -553,12 +523,6 @@
     <t>AINST2227563</t>
   </si>
   <si>
-    <t>AINST2227821</t>
-  </si>
-  <si>
-    <t>AINST2228205</t>
-  </si>
-  <si>
     <t>How did we do??</t>
   </si>
   <si>
@@ -589,9 +553,6 @@
     <t>INC2176731</t>
   </si>
   <si>
-    <t>SCTASK1016722</t>
-  </si>
-  <si>
     <t>INC2224885</t>
   </si>
   <si>
@@ -601,9 +562,6 @@
     <t>INC2241648</t>
   </si>
   <si>
-    <t>INC2241035</t>
-  </si>
-  <si>
     <t>SCTASK1017751</t>
   </si>
   <si>
@@ -649,6 +607,9 @@
     <t>INC2248190</t>
   </si>
   <si>
+    <t>RITM0936987</t>
+  </si>
+  <si>
     <t>INC2246965</t>
   </si>
   <si>
@@ -673,6 +634,9 @@
     <t>INC2242893</t>
   </si>
   <si>
+    <t>RITM0935770</t>
+  </si>
+  <si>
     <t>INC2251035</t>
   </si>
   <si>
@@ -685,6 +649,9 @@
     <t>INC2256677</t>
   </si>
   <si>
+    <t>INC2250080</t>
+  </si>
+  <si>
     <t>INC2253847</t>
   </si>
   <si>
@@ -700,9 +667,6 @@
     <t>INC2252521</t>
   </si>
   <si>
-    <t>INC2254352</t>
-  </si>
-  <si>
     <t>RITM0944339</t>
   </si>
   <si>
@@ -712,12 +676,6 @@
     <t>RITM0944045</t>
   </si>
   <si>
-    <t>INC2242773</t>
-  </si>
-  <si>
-    <t>INC2203927</t>
-  </si>
-  <si>
     <t>RITM0917922</t>
   </si>
   <si>
@@ -757,15 +715,9 @@
     <t>RITM0923544</t>
   </si>
   <si>
-    <t>INC2254112</t>
-  </si>
-  <si>
     <t>INC2260502</t>
   </si>
   <si>
-    <t>INC2254166</t>
-  </si>
-  <si>
     <t>RITM0951117</t>
   </si>
   <si>
@@ -781,9 +733,6 @@
     <t>INC2260960</t>
   </si>
   <si>
-    <t>INC2260096</t>
-  </si>
-  <si>
     <t>INC2196104</t>
   </si>
   <si>
@@ -805,12 +754,6 @@
     <t>INC2265282</t>
   </si>
   <si>
-    <t>INC2265365</t>
-  </si>
-  <si>
-    <t>INC2265541</t>
-  </si>
-  <si>
     <t>Sunildev Mahadeva</t>
   </si>
   <si>
@@ -829,9 +772,6 @@
     <t>Bharathkumar Senthamaraikannan</t>
   </si>
   <si>
-    <t>Sharath Joshi</t>
-  </si>
-  <si>
     <t>Manjit Sarkar</t>
   </si>
   <si>
@@ -841,39 +781,42 @@
     <t>Prasad Bandla</t>
   </si>
   <si>
+    <t>Power Automate</t>
+  </si>
+  <si>
+    <t>Paulraita T</t>
+  </si>
+  <si>
+    <t>Ravi Chakali</t>
+  </si>
+  <si>
+    <t>Kalluru MuraliKrishnaReddy</t>
+  </si>
+  <si>
+    <t>Anusha Nadageri</t>
+  </si>
+  <si>
+    <t>Bharathkumar Madiwalar</t>
+  </si>
+  <si>
+    <t>Somiran Rakshit</t>
+  </si>
+  <si>
+    <t>Asutosh Nayak</t>
+  </si>
+  <si>
     <t>Vidhya Dharmaraj</t>
   </si>
   <si>
-    <t>Power Automate</t>
-  </si>
-  <si>
-    <t>Paulraita T</t>
-  </si>
-  <si>
-    <t>Ravi Chakali</t>
-  </si>
-  <si>
-    <t>Kalluru MuraliKrishnaReddy</t>
-  </si>
-  <si>
-    <t>Anusha Nadageri</t>
-  </si>
-  <si>
-    <t>Bharathkumar Madiwalar</t>
-  </si>
-  <si>
-    <t>Somiran Rakshit</t>
-  </si>
-  <si>
-    <t>Asutosh Nayak</t>
-  </si>
-  <si>
     <t>Yogesh R</t>
   </si>
   <si>
     <t>Saikumar Singamaneni</t>
   </si>
   <si>
+    <t>Manisha Singh</t>
+  </si>
+  <si>
     <t>Priti Sawale</t>
   </si>
   <si>
@@ -889,6 +832,9 @@
     <t>Johar Ahmed</t>
   </si>
   <si>
+    <t>Devendra Kothavolla</t>
+  </si>
+  <si>
     <t>Sivakumar Balakrishnan</t>
   </si>
   <si>
@@ -904,9 +850,6 @@
     <t>Nithesh Mitta</t>
   </si>
   <si>
-    <t>Manisha Singh</t>
-  </si>
-  <si>
     <t>NitishS Dani</t>
   </si>
   <si>
@@ -919,9 +862,6 @@
     <t>SaiPrasad Chandaka</t>
   </si>
   <si>
-    <t>Shasikala Peddanaggari</t>
-  </si>
-  <si>
     <t>Shivaraj Siddaraju</t>
   </si>
   <si>
@@ -949,15 +889,9 @@
     <t>Raghavendrakumar Rachupalle</t>
   </si>
   <si>
-    <t>Nishitha Jala</t>
-  </si>
-  <si>
     <t>ManikantaReddy Palampalli</t>
   </si>
   <si>
-    <t>Kavyasri Mupparaju</t>
-  </si>
-  <si>
     <t>Manas Shivakumar</t>
   </si>
   <si>
@@ -967,16 +901,10 @@
     <t>RajeshKumar Nara</t>
   </si>
   <si>
-    <t>Vineetha Cheerla</t>
-  </si>
-  <si>
     <t>Mohammed Shafi</t>
   </si>
   <si>
     <t>Veerrajamma Korla</t>
-  </si>
-  <si>
-    <t>Sanjay Perumal</t>
   </si>
   <si>
     <t>No</t>
@@ -1031,9 +959,6 @@
     <t>Hi, this incident sat with IT for extended period and they did not help me fix. I fixed it myself.  Poor service. Sorry, that I have to say this.</t>
   </si>
   <si>
-    <t>Lots of pauses in the communications leaving me unsure of status. I was also unsure on a number of occasions what was expected from me to assist resolve (e.g. I was asked to open Jacobs apps but it was not clear that this was what was expected and no requests for me to provide progress in doing so).</t>
-  </si>
-  <si>
     <t>As someone who is supposed to be using CAD on a regular basis, it was a little bonkers that it took so long for me to be able to use it again. It was also a hassle for my team to find work not using CAD.</t>
   </si>
   <si>
@@ -1041,9 +966,6 @@
   </si>
   <si>
     <t>Problem was not fixed.  It reappeared after next login</t>
-  </si>
-  <si>
-    <t>Teams still not working</t>
   </si>
   <si>
     <t>Teams page was setup extremely quick which was great but the additional members in the CSV file attached to the ticket were not included. Unfortunately the ticket had been closed and there's no way of opening it so I had to raise a new ticket.</t>
@@ -1092,6 +1014,9 @@
     <t xml:space="preserve">I've never had such a difficult experience. The IT individual was rude and constantly did not listen to me. I would type in the chat or say things on the phone and it was apparent they were not paying attention because they would ask me questions that I already provided. They insisted what I was experiencing was a WiFi issue but I explained several times it could not be a WiFi issue since I was able to chat with them through an internet browser on my work laptop and that my internet said "connected, secured" and the internet was toggled on. If I was not connected to the internet, I would not have been able to chat with them on the IT chat. Also, they were rude and irritated that I was not answering their teams calls even though I explained MULTIPLE times that my teams wasn't working and was giving me an error saying there was something wrong with the authentication. They also got irritated and said I was not following the correct steps when attempting to remote in. I followed the steps but it did not work. I have successfully had others remote in numerous times on other occasions and I am very familiar with the process. They would say things such as, "How can I help you if you won't pick up or let me remote in?" I explained that I wasn't trying to be difficult or not resolve the issue, but what they were saying wasn't working. I mentioned that something may be wrong that they may not know and asked if they could escalate my ticket or have someone else look at it and they refused. What resolved the issue was an additional laptop restart. However, I want to mention that I had already did a laptop restart BEFORE contacting him. I also made sure that I was connected to WiFi and that it was toggled on. Other devices such as my phone were connected to the WiFi and working just fine. In the notes, they noted that what fixed it was turning WiFi off and back on, which is untrue. Overall, I am just shocked at the overall quality of service. It has been a very long time I have experienced someone so rude and dismissive. </t>
   </si>
   <si>
+    <t xml:space="preserve">poor understanding of the problem. problem now reoccurred </t>
+  </si>
+  <si>
     <t xml:space="preserve">The person tried, but it came back the next day. Not sure why it is being installed again and again. I need someone to figure out why it won't uninstall. Same for the VDI, it is on there and I don't need it.
 </t>
   </si>
@@ -1117,6 +1042,9 @@
     <t>I spent to much time on trying to get this resolved via help hub.</t>
   </si>
   <si>
+    <t>Original Tier 1 support technician did not understand the request was or a software install, tried reaching me through inactive means of communication and failed to read updates I made to the ticket on how to reach me.  Once I reached out via the chatbot, my ticket was quickly passed to the correct tier, the new technician reached out immediately via the appropriate means to communicate with me, and the ticket was resolved within minutes.  I recommend the Tier 1 support technician that originally responded to my ticket be reminded of the correct way to triage tickets.</t>
+  </si>
+  <si>
     <t xml:space="preserve">the uninstaller could not even be run by the IT specialist. Why role out software that slows the machines down if it then cannot be run? </t>
   </si>
   <si>
@@ -1129,6 +1057,9 @@
     <t>Situations like that should be resolved immediately as they often hold the work.</t>
   </si>
   <si>
+    <t>Everything seems to be low-priority for the IT personnel. I suggest getting rid of the priority definition. I couldn't access my emails and wasn't receiving notifications from meetings for about a week due to this particular issue. If everybody that responds to these issues is from India, I suggest changing their work schedule to accommodate to the US schedule because they typically respond outside working hours in the US.</t>
+  </si>
+  <si>
     <t>issue not resolved by IT team. advised to order new docking station whereas this was resolved by myself by updating a driver for free instead.</t>
   </si>
   <si>
@@ -1144,9 +1075,6 @@
     <t>This ticket was closed without the issue being resolved</t>
   </si>
   <si>
-    <t>While the support person was doing her best, it was also clear that she didn't know what was wrong.  We spend 3 hours trying to trouble-shoot, which is all lost billable production time.  Please ESCALATE problems to a higher tier rather than guessing and flailing and trying stuff that doesn't work.  It was an extremely frustrating experience.  Jacobs used to have decent IT support.  What happened?</t>
-  </si>
-  <si>
     <t>I selected Poor since I'm not able to access software center where the Revit software I requested was added. I have since submitted a request for software center, so hopefully I will be able to get this installed.</t>
   </si>
   <si>
@@ -1154,12 +1082,6 @@
   </si>
   <si>
     <t>the ticket was closed before the issue was resolved</t>
-  </si>
-  <si>
-    <t>I had to fix it my self, not an IT person. only got calls form IT when office before I fixed it.</t>
-  </si>
-  <si>
-    <t>Really difficult to solve - no support given - I've found a solution that works, but know it's a situation that will affect many team members and therefore should have the support in place to figure it out</t>
   </si>
   <si>
     <t>Ordered wrong monitor and closed ticket</t>
@@ -1205,15 +1127,9 @@
     <t>IT Analyst improperly closed the ticket, and won't acknowledge my request to reopen</t>
   </si>
   <si>
-    <t>It's not done!!!</t>
-  </si>
-  <si>
     <t xml:space="preserve">PC fun noise is still ongoing. How come do IT closes the ticket before reaching out. </t>
   </si>
   <si>
-    <t>I need to have authentication methos for mobile log in on my mobile as I use my mobile when my laptop is not with me yet I have to use mobile pass on laptop to log in to mobile which is not a best approach or even possible. Thanks</t>
-  </si>
-  <si>
     <t xml:space="preserve">This ticket was closed without resolution even though it was clearly communicated those requesting access did not have access.  Access was the only reason the ticket was submitted.  The person continued to badger to close the ticket while the team was checking.  He called 4 times within less than 30 min. while I was on the road and could not answer the phone.  Then he closed the ticket right after that knowing the team did not have access.   </t>
   </si>
   <si>
@@ -1227,9 +1143,6 @@
   </si>
   <si>
     <t>No communication was made until the issue was resolved, then the ticket was just closed. It would be really nice to know if there is a known issue with email, or the network, instead of just leaving staff wondering what is happening and when it will be fixed. ETA on it being fixed would be very helpful.</t>
-  </si>
-  <si>
-    <t>The issue wasn't resolved.  My system continues to freeze constantly and spool to delete emails, It can take me up to a minute or 2 to delete a couple of emails at times.  This is an ongoing daily event.</t>
   </si>
   <si>
     <t xml:space="preserve">This ticket has been open for months.  None of the solutions have worked and actually caused more problems (i.e., my windows profile was "rebuilt" and all of my quick links were removed without backing up first - this is a major productivity concern and should be avoided in future).  The issue still persists, but only when I am working on shared documents through SharePoint, so I am not able to "check" whether the issue has been resolved until I am working on a document with someone else.  I was pushed by several IT consultants to close the ticket even though the issue is not resolved.  </t>
@@ -1254,12 +1167,6 @@
     <t>The issue is not resolved and saying that it is a Microsoft issue is not a resolution.  I am having significant issues and not able to perform my job due to the issues.  Please contact me.</t>
   </si>
   <si>
-    <t>I was not missing my Teams button.  The issue is with my Outlook mailbox not functioning.  The issue has not been fixed and it is seriously affecting my ability to perform my job.</t>
-  </si>
-  <si>
-    <t>The person I spoke to on phone was difficult/impossible to understand. The language barrier is a big problem. As it turns out he had no idea what he was doing and wasted 30 minutes of my time just to tell me I needed to submit a ticket.   The second person sent a message and everything was resolved within minutes without much discussion.</t>
-  </si>
-  <si>
     <t>Unclear</t>
   </si>
   <si>
@@ -1272,16 +1179,16 @@
     <t>Actionable</t>
   </si>
   <si>
-    <t>IT Software Update</t>
-  </si>
-  <si>
-    <t>Resolved Issue</t>
-  </si>
-  <si>
-    <t>Discontinued Service</t>
-  </si>
-  <si>
-    <t>Closed Ticket</t>
+    <t>Software Installation</t>
+  </si>
+  <si>
+    <t>Issue Resolution</t>
+  </si>
+  <si>
+    <t>Chat Support</t>
+  </si>
+  <si>
+    <t>Ticket Closure</t>
   </si>
   <si>
     <t>Jul,25</t>
@@ -1646,7 +1553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1731,49 +1638,49 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="M2" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="P2" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="Q2" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S2">
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="U2" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1790,43 +1697,43 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="M3" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="P3" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="R3" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U3" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1843,49 +1750,49 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M4" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N4" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P4" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="Q4" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="R4" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U4" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1902,49 +1809,49 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="L5" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="M5" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N5" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P5" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="Q5" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R5" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="U5" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1961,49 +1868,49 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="L6" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="M6" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N6" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="P6" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="Q6" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R6" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="S6">
         <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="U6" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2020,49 +1927,49 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L7" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="M7" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N7" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P7" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="Q7" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R7" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="U7" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2079,49 +1986,49 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J8" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="L8" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M8" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N8" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="P8" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="Q8" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R8" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U8" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2138,49 +2045,49 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J9" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L9" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="M9" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N9" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P9" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="Q9" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R9" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U9" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2197,54 +2104,54 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="L10" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="M10" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N10" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="P10" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="Q10" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="R10" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="U10" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="2">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2256,49 +2163,49 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J11" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K11" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L11" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="M11" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N11" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="P11" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="Q11" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="R11" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="U11" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2315,54 +2222,54 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" t="s">
         <v>181</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>181</v>
-      </c>
-      <c r="J12" t="s">
-        <v>182</v>
-      </c>
-      <c r="K12" t="s">
-        <v>193</v>
-      </c>
       <c r="L12" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="M12" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N12" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="P12" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="Q12" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R12" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="U12" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="2">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2374,54 +2281,54 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" t="s">
         <v>182</v>
       </c>
-      <c r="K13" t="s">
-        <v>194</v>
-      </c>
       <c r="L13" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="M13" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N13" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="P13" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="Q13" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R13" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="U13" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="2">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2433,54 +2340,54 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J14" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L14" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="M14" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="N14" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="P14" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="Q14" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R14" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="U14" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="2">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2492,49 +2399,49 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="M15" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N15" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="P15" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="Q15" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R15" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="U15" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2551,54 +2458,54 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="M16" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="N16" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="P16" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="Q16" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R16" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="U16" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="2">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2610,54 +2517,54 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="M17" t="s">
+        <v>297</v>
+      </c>
+      <c r="N17" t="s">
+        <v>303</v>
+      </c>
+      <c r="P17" t="s">
         <v>321</v>
       </c>
-      <c r="N17" t="s">
-        <v>326</v>
-      </c>
-      <c r="P17" t="s">
-        <v>345</v>
-      </c>
       <c r="Q17" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R17" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="S17">
         <v>2</v>
       </c>
       <c r="T17" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="U17" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="2">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2669,54 +2576,54 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="M18" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N18" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="P18" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="Q18" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R18" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="U18" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="2">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2728,54 +2635,54 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G19" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="M19" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N19" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="P19" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="Q19" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R19" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="U19" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="2">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2787,49 +2694,49 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="M20" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N20" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="P20" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="Q20" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R20" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="U20" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2846,49 +2753,49 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="M21" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N21" t="s">
+        <v>303</v>
+      </c>
+      <c r="P21" t="s">
         <v>325</v>
       </c>
-      <c r="P21" t="s">
-        <v>349</v>
-      </c>
       <c r="Q21" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R21" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="U21" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2905,54 +2812,54 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="M22" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N22" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="P22" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="Q22" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R22" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T22" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="U22" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="2">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2964,54 +2871,54 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="M23" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N23" t="s">
+        <v>303</v>
+      </c>
+      <c r="P23" t="s">
         <v>327</v>
       </c>
-      <c r="P23" t="s">
-        <v>351</v>
-      </c>
       <c r="Q23" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="R23" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S23">
         <v>3</v>
       </c>
       <c r="T23" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="U23" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="2">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3023,49 +2930,49 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J24" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M24" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N24" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="P24" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="Q24" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R24" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="U24" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -3082,49 +2989,49 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N25" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="P25" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="Q25" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="R25" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="U25" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -3141,54 +3048,54 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J26" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N26" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P26" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="Q26" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R26" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U26" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="2">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3200,54 +3107,54 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J27" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N27" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="P27" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="Q27" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R27" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T27" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="U27" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="2">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3259,49 +3166,49 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J28" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N28" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P28" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="Q28" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R28" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U28" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -3318,49 +3225,49 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G29" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J29" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K29" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N29" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="P29" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="Q29" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R29" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T29" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="U29" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -3377,54 +3284,54 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J30" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K30" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N30" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="P30" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="Q30" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R30" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="U30" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="2">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3436,49 +3343,49 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J31" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N31" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P31" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="Q31" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R31" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="U31" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -3495,54 +3402,54 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J32" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="L32" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N32" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="P32" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="Q32" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R32" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="U32" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="2">
-        <v>45850</v>
+        <v>45852</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3554,49 +3461,49 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J33" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L33" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N33" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="P33" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="Q33" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R33" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="U33" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -3613,54 +3520,54 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K34" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="L34" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="P34" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="Q34" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R34" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="U34" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="2">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3672,49 +3579,49 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J35" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K35" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N35" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="P35" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="Q35" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R35" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="U35" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3731,49 +3638,49 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J36" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K36" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L36" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="M36" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N36" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="P36" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="Q36" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R36" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U36" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3790,49 +3697,49 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J37" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K37" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L37" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="M37" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N37" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="P37" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="Q37" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="R37" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="U37" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3843,55 +3750,55 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J38" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="L38" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="N38" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P38" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="Q38" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R38" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S38">
         <v>2</v>
       </c>
       <c r="T38" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="U38" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3908,49 +3815,49 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G39" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J39" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K39" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="L39" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="M39" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="N39" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="P39" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="Q39" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R39" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U39" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3967,49 +3874,49 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J40" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L40" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="M40" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N40" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P40" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="Q40" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R40" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U40" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -4026,49 +3933,49 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G41" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J41" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K41" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="M41" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N41" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="P41" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="Q41" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R41" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U41" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -4085,49 +3992,49 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J42" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K42" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="L42" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="M42" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N42" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="P42" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="Q42" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="R42" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="U42" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -4144,49 +4051,49 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J43" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K43" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="L43" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N43" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="P43" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="Q43" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="R43" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="U43" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -4203,49 +4110,49 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G44" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J44" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K44" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="L44" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="M44" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N44" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="P44" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="Q44" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R44" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T44" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="U44" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -4262,49 +4169,49 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G45" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J45" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="L45" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="M45" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="N45" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="P45" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="Q45" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R45" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="U45" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -4321,54 +4228,54 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J46" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K46" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="L46" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M46" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="N46" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P46" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="Q46" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R46" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S46">
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="U46" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="2">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4380,49 +4287,49 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J47" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="M47" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N47" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P47" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="Q47" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R47" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="U47" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -4439,49 +4346,49 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G48" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J48" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L48" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="M48" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N48" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="P48" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="Q48" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="R48" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S48">
         <v>2</v>
       </c>
       <c r="T48" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="U48" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -4498,49 +4405,49 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J49" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K49" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L49" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="M49" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N49" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P49" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="Q49" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R49" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U49" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -4557,167 +4464,167 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J50" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K50" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="L50" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="M50" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N50" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P50" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="Q50" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R50" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="S50">
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="U50" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="2">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J51" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K51" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="L51" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="M51" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N51" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="P51" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="Q51" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R51" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="U51" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="2">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G52" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J52" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K52" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="L52" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="M52" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N52" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="P52" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="Q52" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R52" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="U52" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -4728,55 +4635,55 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G53" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J53" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K53" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L53" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="M53" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N53" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="P53" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="Q53" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R53" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T53" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="U53" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4787,173 +4694,173 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G54" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J54" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K54" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L54" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M54" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N54" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="P54" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>297</v>
+      </c>
+      <c r="R54" t="s">
         <v>382</v>
       </c>
-      <c r="Q54" t="s">
-        <v>321</v>
-      </c>
-      <c r="R54" t="s">
-        <v>412</v>
-      </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U54" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="2">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G55" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J55" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K55" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="L55" t="s">
+        <v>285</v>
+      </c>
+      <c r="M55" t="s">
+        <v>297</v>
+      </c>
+      <c r="N55" t="s">
         <v>303</v>
       </c>
-      <c r="M55" t="s">
-        <v>321</v>
-      </c>
-      <c r="N55" t="s">
-        <v>327</v>
-      </c>
       <c r="P55" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="Q55" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R55" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="U55" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="2">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G56" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J56" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K56" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="L56" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="M56" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N56" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="P56" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>297</v>
+      </c>
+      <c r="R56" t="s">
         <v>384</v>
       </c>
-      <c r="Q56" t="s">
-        <v>321</v>
-      </c>
-      <c r="R56" t="s">
-        <v>413</v>
-      </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="U56" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4964,55 +4871,55 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G57" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J57" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K57" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="L57" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="M57" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N57" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="P57" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="Q57" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R57" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="U57" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -5023,55 +4930,55 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J58" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K58" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="M58" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N58" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="P58" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="Q58" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R58" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T58" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="U58" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -5082,55 +4989,55 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G59" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J59" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K59" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L59" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="M59" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N59" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="P59" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>297</v>
+      </c>
+      <c r="R59" t="s">
+        <v>382</v>
+      </c>
+      <c r="S59">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s">
         <v>387</v>
       </c>
-      <c r="Q59" t="s">
-        <v>321</v>
-      </c>
-      <c r="R59" t="s">
-        <v>412</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59" t="s">
-        <v>417</v>
-      </c>
       <c r="U59" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -5141,55 +5048,55 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G60" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J60" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K60" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L60" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="M60" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N60" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="P60" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="Q60" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R60" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="U60" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -5200,55 +5107,55 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G61" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J61" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K61" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L61" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="M61" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N61" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P61" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="Q61" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R61" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="S61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T61" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="U61" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -5259,55 +5166,55 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G62" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J62" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M62" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N62" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="P62" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="Q62" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R62" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="U62" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -5318,532 +5225,532 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G63" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J63" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K63" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="L63" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="M63" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="N63" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="P63" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="Q63" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R63" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="U63" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="2">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G64" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J64" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K64" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="L64" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="M64" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N64" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="P64" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q64" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R64" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="U64" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="2">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G65" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J65" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K65" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="L65" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="M65" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="N65" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="P65" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="Q65" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R65" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="U65" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="2">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G66" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J66" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K66" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="L66" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M66" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N66" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="P66" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="Q66" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R66" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T66" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="U66" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="2">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G67" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J67" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K67" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L67" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="M67" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N67" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="P67" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="Q67" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R67" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T67" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="U67" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="2">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G68" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J68" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K68" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="L68" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="M68" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N68" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="P68" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="Q68" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R68" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T68" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="U68" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="2">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G69" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J69" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K69" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="L69" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M69" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N69" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="P69" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="Q69" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R69" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="U69" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="2">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G70" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J70" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K70" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="L70" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="M70" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N70" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="P70" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="Q70" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R70" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="S70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T70" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="U70" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="2">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G71" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J71" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K71" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L71" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M71" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N71" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="P71" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="Q71" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R71" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T71" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="U71" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="2">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -5855,54 +5762,54 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G72" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J72" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K72" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="L72" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="M72" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N72" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="P72" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="Q72" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R72" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T72" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="U72" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="2">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -5914,54 +5821,54 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G73" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J73" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K73" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="L73" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="M73" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N73" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="P73" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="Q73" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R73" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="U73" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="2">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -5973,54 +5880,54 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G74" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J74" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K74" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L74" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="M74" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N74" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="P74" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="Q74" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R74" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T74" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="U74" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="2">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -6032,518 +5939,108 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G75" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J75" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K75" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L75" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="M75" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N75" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="P75" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="Q75" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R75" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="U75" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="2">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G76" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J76" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K76" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="L76" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="M76" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N76" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="P76" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="Q76" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="R76" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="S76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="U76" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
-      <c r="A77" s="2">
-        <v>45866</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="D77" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
-        <v>174</v>
-      </c>
-      <c r="G77" t="s">
-        <v>181</v>
-      </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="s">
-        <v>181</v>
-      </c>
-      <c r="J77" t="s">
-        <v>182</v>
-      </c>
-      <c r="K77" t="s">
-        <v>258</v>
-      </c>
-      <c r="L77" t="s">
-        <v>310</v>
-      </c>
-      <c r="M77" t="s">
-        <v>321</v>
-      </c>
-      <c r="N77" t="s">
-        <v>326</v>
-      </c>
-      <c r="P77" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>321</v>
-      </c>
-      <c r="R77" t="s">
-        <v>414</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77" t="s">
-        <v>416</v>
-      </c>
-      <c r="U77" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
-      <c r="A78" s="2">
-        <v>45866</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" t="s">
-        <v>175</v>
-      </c>
-      <c r="G78" t="s">
-        <v>181</v>
-      </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>181</v>
-      </c>
-      <c r="J78" t="s">
-        <v>182</v>
-      </c>
-      <c r="K78" t="s">
-        <v>259</v>
-      </c>
-      <c r="L78" t="s">
-        <v>273</v>
-      </c>
-      <c r="M78" t="s">
-        <v>321</v>
-      </c>
-      <c r="N78" t="s">
-        <v>328</v>
-      </c>
-      <c r="P78" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>321</v>
-      </c>
-      <c r="R78" t="s">
-        <v>412</v>
-      </c>
-      <c r="S78">
-        <v>1</v>
-      </c>
-      <c r="T78" t="s">
-        <v>419</v>
-      </c>
-      <c r="U78" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
-      <c r="A79" s="2">
-        <v>45867</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" t="s">
-        <v>176</v>
-      </c>
-      <c r="G79" t="s">
-        <v>181</v>
-      </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="s">
-        <v>181</v>
-      </c>
-      <c r="J79" t="s">
-        <v>182</v>
-      </c>
-      <c r="K79" t="s">
-        <v>260</v>
-      </c>
-      <c r="L79" t="s">
-        <v>319</v>
-      </c>
-      <c r="M79" t="s">
-        <v>321</v>
-      </c>
-      <c r="N79" t="s">
-        <v>325</v>
-      </c>
-      <c r="P79" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>321</v>
-      </c>
-      <c r="R79" t="s">
-        <v>412</v>
-      </c>
-      <c r="S79">
-        <v>2</v>
-      </c>
-      <c r="T79" t="s">
-        <v>416</v>
-      </c>
-      <c r="U79" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
-      <c r="A80" s="2">
-        <v>45867</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="D80" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80" t="s">
-        <v>177</v>
-      </c>
-      <c r="G80" t="s">
-        <v>181</v>
-      </c>
-      <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="s">
-        <v>181</v>
-      </c>
-      <c r="J80" t="s">
-        <v>182</v>
-      </c>
-      <c r="K80" t="s">
-        <v>261</v>
-      </c>
-      <c r="L80" t="s">
-        <v>299</v>
-      </c>
-      <c r="M80" t="s">
-        <v>321</v>
-      </c>
-      <c r="N80" t="s">
-        <v>326</v>
-      </c>
-      <c r="P80" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>321</v>
-      </c>
-      <c r="R80" t="s">
-        <v>412</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80" t="s">
-        <v>417</v>
-      </c>
-      <c r="U80" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
-      <c r="A81" s="2">
-        <v>45868</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="D81" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>178</v>
-      </c>
-      <c r="G81" t="s">
-        <v>181</v>
-      </c>
-      <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
-        <v>181</v>
-      </c>
-      <c r="J81" t="s">
-        <v>182</v>
-      </c>
-      <c r="K81" t="s">
-        <v>262</v>
-      </c>
-      <c r="L81" t="s">
-        <v>304</v>
-      </c>
-      <c r="M81" t="s">
-        <v>321</v>
-      </c>
-      <c r="N81" t="s">
-        <v>327</v>
-      </c>
-      <c r="P81" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>323</v>
-      </c>
-      <c r="R81" t="s">
-        <v>412</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81" t="s">
-        <v>417</v>
-      </c>
-      <c r="U81" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
-      <c r="A82" s="2">
-        <v>45868</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>97</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" t="s">
-        <v>179</v>
-      </c>
-      <c r="G82" t="s">
-        <v>181</v>
-      </c>
-      <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="s">
-        <v>181</v>
-      </c>
-      <c r="J82" t="s">
-        <v>182</v>
-      </c>
-      <c r="K82" t="s">
-        <v>263</v>
-      </c>
-      <c r="L82" t="s">
-        <v>320</v>
-      </c>
-      <c r="M82" t="s">
-        <v>321</v>
-      </c>
-      <c r="N82" t="s">
-        <v>328</v>
-      </c>
-      <c r="P82" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>323</v>
-      </c>
-      <c r="R82" t="s">
-        <v>412</v>
-      </c>
-      <c r="S82">
-        <v>3</v>
-      </c>
-      <c r="T82" t="s">
-        <v>418</v>
-      </c>
-      <c r="U82" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
-      <c r="A83" s="2">
-        <v>45869</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
-        <v>98</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83" t="s">
-        <v>180</v>
-      </c>
-      <c r="G83" t="s">
-        <v>181</v>
-      </c>
-      <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
-        <v>181</v>
-      </c>
-      <c r="J83" t="s">
-        <v>182</v>
-      </c>
-      <c r="K83" t="s">
-        <v>264</v>
-      </c>
-      <c r="M83" t="s">
-        <v>321</v>
-      </c>
-      <c r="N83" t="s">
-        <v>325</v>
-      </c>
-      <c r="P83" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>323</v>
-      </c>
-      <c r="R83" t="s">
-        <v>412</v>
-      </c>
-      <c r="S83">
-        <v>1</v>
-      </c>
-      <c r="T83" t="s">
-        <v>419</v>
-      </c>
-      <c r="U83" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
